--- a/gd/手游系统规划/功能开放及引导初稿.xlsx
+++ b/gd/手游系统规划/功能开放及引导初稿.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="90" windowWidth="28245" windowHeight="12165" activeTab="2"/>
+    <workbookView xWindow="30" yWindow="90" windowWidth="28245" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="人物经验" sheetId="1" r:id="rId1"/>
     <sheet name="数值向功能投放" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="引导内容" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="258">
   <si>
     <t>设计之前</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,10 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主线任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>疲劳经验系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -543,10 +539,6 @@
   </si>
   <si>
     <t>循环副本数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线任务经验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1110,14 +1102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行强化引导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复刷本阶段,2-3(3次)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家操作宠物上阵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1127,6 +1111,103 @@
   </si>
   <si>
     <t>战斗前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复刷本阶段,2-3(3次)
+获得装备强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力消耗值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物升级至3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物升级至4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线任务总经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线任务数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体力消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常任务开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取日常任务奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行强化指引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二波次出现高DOT与HOT伤害怪物,需要先集火秒掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示玩家进行装备强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行装备强化系统--宠物界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS使用眩晕技能,必须找到弱点,才能遏制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次流程战斗通常会失败,提示重复刷本2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次引导重复副本,第一次引导正常刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次才会引导玩家进行扫荡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1252,7 +1333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1271,8 +1352,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1409,11 +1502,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1480,6 +1604,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1495,14 +1637,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1510,8 +1664,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1522,56 +1706,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1606,7 +1789,7 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
-            <v>5</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="10">
@@ -1760,7 +1943,7 @@
             <v>1</v>
           </cell>
           <cell r="N55">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="56">
@@ -1774,7 +1957,7 @@
             <v>1</v>
           </cell>
           <cell r="N56">
-            <v>5</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="57">
@@ -1788,7 +1971,7 @@
             <v>1</v>
           </cell>
           <cell r="N57">
-            <v>7</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="58">
@@ -1802,7 +1985,7 @@
             <v>1</v>
           </cell>
           <cell r="N58">
-            <v>9</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="59">
@@ -1816,7 +1999,7 @@
             <v>1</v>
           </cell>
           <cell r="N59">
-            <v>11</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="60">
@@ -1830,7 +2013,7 @@
             <v>1</v>
           </cell>
           <cell r="N60">
-            <v>13</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="61">
@@ -1844,7 +2027,7 @@
             <v>1</v>
           </cell>
           <cell r="N61">
-            <v>16</v>
+            <v>13</v>
           </cell>
         </row>
         <row r="62">
@@ -1858,7 +2041,7 @@
             <v>1</v>
           </cell>
           <cell r="N62">
-            <v>18</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="63">
@@ -1872,7 +2055,7 @@
             <v>1</v>
           </cell>
           <cell r="N63">
-            <v>20</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="64">
@@ -1886,7 +2069,7 @@
             <v>1</v>
           </cell>
           <cell r="N64">
-            <v>22</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="65">
@@ -1900,7 +2083,7 @@
             <v>1</v>
           </cell>
           <cell r="N65">
-            <v>24</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="66">
@@ -1914,7 +2097,7 @@
             <v>1</v>
           </cell>
           <cell r="N66">
-            <v>26</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="67">
@@ -1928,7 +2111,7 @@
             <v>1</v>
           </cell>
           <cell r="N67">
-            <v>29</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="68">
@@ -1942,7 +2125,7 @@
             <v>1</v>
           </cell>
           <cell r="N68">
-            <v>31</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="69">
@@ -1956,7 +2139,7 @@
             <v>1</v>
           </cell>
           <cell r="N69">
-            <v>33</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="70">
@@ -1970,7 +2153,7 @@
             <v>2</v>
           </cell>
           <cell r="N70">
-            <v>35</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="71">
@@ -1984,7 +2167,7 @@
             <v>2</v>
           </cell>
           <cell r="N71">
-            <v>37</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="72">
@@ -1998,7 +2181,7 @@
             <v>2</v>
           </cell>
           <cell r="N72">
-            <v>39</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="73">
@@ -2012,7 +2195,7 @@
             <v>2</v>
           </cell>
           <cell r="N73">
-            <v>41</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="74">
@@ -2026,7 +2209,7 @@
             <v>2</v>
           </cell>
           <cell r="N74">
-            <v>42</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="75">
@@ -2040,7 +2223,7 @@
             <v>2</v>
           </cell>
           <cell r="N75">
-            <v>43</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="76">
@@ -2054,7 +2237,7 @@
             <v>2</v>
           </cell>
           <cell r="N76">
-            <v>44</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="77">
@@ -2068,7 +2251,7 @@
             <v>2</v>
           </cell>
           <cell r="N77">
-            <v>45</v>
+            <v>38</v>
           </cell>
         </row>
         <row r="78">
@@ -2082,7 +2265,7 @@
             <v>3</v>
           </cell>
           <cell r="N78">
-            <v>46</v>
+            <v>38</v>
           </cell>
         </row>
         <row r="79">
@@ -2096,7 +2279,7 @@
             <v>3</v>
           </cell>
           <cell r="N79">
-            <v>47</v>
+            <v>39</v>
           </cell>
         </row>
         <row r="80">
@@ -2110,7 +2293,7 @@
             <v>3</v>
           </cell>
           <cell r="N80">
-            <v>47</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="81">
@@ -2124,7 +2307,7 @@
             <v>3</v>
           </cell>
           <cell r="N81">
-            <v>49</v>
+            <v>41</v>
           </cell>
         </row>
         <row r="82">
@@ -2138,7 +2321,7 @@
             <v>4</v>
           </cell>
           <cell r="N82">
-            <v>50</v>
+            <v>41</v>
           </cell>
         </row>
         <row r="83">
@@ -2152,7 +2335,7 @@
             <v>4</v>
           </cell>
           <cell r="N83">
-            <v>50</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="84">
@@ -2166,7 +2349,7 @@
             <v>5</v>
           </cell>
           <cell r="N84">
-            <v>51</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="85">
@@ -2180,7 +2363,7 @@
             <v>5</v>
           </cell>
           <cell r="N85">
-            <v>51</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="86">
@@ -2194,7 +2377,7 @@
             <v>6</v>
           </cell>
           <cell r="N86">
-            <v>52</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="87">
@@ -2208,7 +2391,7 @@
             <v>7</v>
           </cell>
           <cell r="N87">
-            <v>52</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="88">
@@ -2222,7 +2405,7 @@
             <v>8</v>
           </cell>
           <cell r="N88">
-            <v>53</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="89">
@@ -2236,7 +2419,7 @@
             <v>9</v>
           </cell>
           <cell r="N89">
-            <v>54</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="90">
@@ -2250,7 +2433,7 @@
             <v>10</v>
           </cell>
           <cell r="N90">
-            <v>54</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="91">
@@ -2264,7 +2447,7 @@
             <v>11</v>
           </cell>
           <cell r="N91">
-            <v>55</v>
+            <v>46</v>
           </cell>
         </row>
         <row r="92">
@@ -2278,7 +2461,7 @@
             <v>13</v>
           </cell>
           <cell r="N92">
-            <v>56</v>
+            <v>46</v>
           </cell>
         </row>
         <row r="93">
@@ -2292,7 +2475,7 @@
             <v>15</v>
           </cell>
           <cell r="N93">
-            <v>57</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="94">
@@ -2306,7 +2489,7 @@
             <v>17</v>
           </cell>
           <cell r="N94">
-            <v>57</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="95">
@@ -2320,7 +2503,7 @@
             <v>19</v>
           </cell>
           <cell r="N95">
-            <v>58</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="96">
@@ -2334,7 +2517,7 @@
             <v>22</v>
           </cell>
           <cell r="N96">
-            <v>59</v>
+            <v>49</v>
           </cell>
         </row>
         <row r="97">
@@ -2348,7 +2531,7 @@
             <v>24</v>
           </cell>
           <cell r="N97">
-            <v>59</v>
+            <v>49</v>
           </cell>
         </row>
         <row r="98">
@@ -2362,7 +2545,7 @@
             <v>27</v>
           </cell>
           <cell r="N98">
-            <v>60</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="99">
@@ -2376,7 +2559,7 @@
             <v>29</v>
           </cell>
           <cell r="N99">
-            <v>60</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="100">
@@ -2390,7 +2573,7 @@
             <v>32</v>
           </cell>
           <cell r="N100">
-            <v>60</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="101">
@@ -2404,7 +2587,7 @@
             <v>36</v>
           </cell>
           <cell r="N101">
-            <v>61</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="102">
@@ -2418,7 +2601,7 @@
             <v>40</v>
           </cell>
           <cell r="N102">
-            <v>61</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="103">
@@ -2432,7 +2615,7 @@
             <v>45</v>
           </cell>
           <cell r="N103">
-            <v>62</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="104">
@@ -2446,7 +2629,7 @@
             <v>49</v>
           </cell>
           <cell r="N104">
-            <v>62</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="105">
@@ -2460,7 +2643,7 @@
             <v>53</v>
           </cell>
           <cell r="N105">
-            <v>62</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="106">
@@ -2474,7 +2657,7 @@
             <v>58</v>
           </cell>
           <cell r="N106">
-            <v>63</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="107">
@@ -2488,7 +2671,7 @@
             <v>62</v>
           </cell>
           <cell r="N107">
-            <v>63</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="108">
@@ -2502,7 +2685,7 @@
             <v>68</v>
           </cell>
           <cell r="N108">
-            <v>63</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="109">
@@ -2516,7 +2699,7 @@
             <v>73</v>
           </cell>
           <cell r="N109">
-            <v>64</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="110">
@@ -2530,7 +2713,7 @@
             <v>78</v>
           </cell>
           <cell r="N110">
-            <v>64</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="111">
@@ -2544,7 +2727,7 @@
             <v>84</v>
           </cell>
           <cell r="N111">
-            <v>64</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="112">
@@ -2558,7 +2741,7 @@
             <v>91</v>
           </cell>
           <cell r="N112">
-            <v>64</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="113">
@@ -2572,7 +2755,7 @@
             <v>97</v>
           </cell>
           <cell r="N113">
-            <v>65</v>
+            <v>54</v>
           </cell>
         </row>
       </sheetData>
@@ -2873,10 +3056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB74"/>
+  <dimension ref="A2:AC74"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2885,13 +3068,15 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.5" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2902,123 +3087,120 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="D4">
-        <f>O5</f>
+        <f>P5</f>
         <v>13</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="2"/>
+      <c r="U4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>5</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>40</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>13</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>16</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>19</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>22</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>28</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>34</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>10</v>
       </c>
       <c r="Z5">
         <v>10</v>
@@ -3026,315 +3208,318 @@
       <c r="AA5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="N6">
+      <c r="AB5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="O6">
         <v>2</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>19</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>24</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>27</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>34</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>39</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>42</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>2</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>10</v>
-      </c>
-      <c r="Z6">
-        <v>16</v>
       </c>
       <c r="AA6">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AB6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>38</v>
       </c>
       <c r="D7">
-        <f>O6</f>
+        <f>P6</f>
         <v>19</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>3</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>24</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>28</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>30</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>3</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>39</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>43</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>45</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>3</v>
-      </c>
-      <c r="Y7">
-        <v>16</v>
       </c>
       <c r="Z7">
         <v>16</v>
       </c>
       <c r="AA7">
+        <v>16</v>
+      </c>
+      <c r="AB7">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>42</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>4</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>27</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>30</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>32</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>4</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>42</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>45</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>46</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>4</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>16</v>
-      </c>
-      <c r="Z8">
-        <v>19</v>
       </c>
       <c r="AA8">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="N9">
+      <c r="AB8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="O9">
         <v>5</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>29</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>32</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>34</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>5</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>44</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>46</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>47</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>5</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>16</v>
-      </c>
-      <c r="Z9">
-        <v>19</v>
       </c>
       <c r="AA9">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AB9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>6</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>30</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>33</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>35</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>6</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>45</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>46</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>47</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>6</v>
-      </c>
-      <c r="Y10">
-        <v>19</v>
       </c>
       <c r="Z10">
         <v>19</v>
       </c>
       <c r="AA10">
+        <v>19</v>
+      </c>
+      <c r="AB10">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>7</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>31</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>34</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>36</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>7</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>45</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>47</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>48</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>7</v>
-      </c>
-      <c r="Y11">
-        <v>19</v>
       </c>
       <c r="Z11">
         <v>19</v>
       </c>
       <c r="AA11">
+        <v>19</v>
+      </c>
+      <c r="AB11">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="O12" t="s">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="P12" t="s">
         <v>13</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="AB13" s="28" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AC13" s="34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>28</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>29</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>31</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>32</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>30</v>
       </c>
-      <c r="AB14" s="28"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="L15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="AC14" s="34"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="M15" t="s">
         <v>39</v>
       </c>
       <c r="O15" t="s">
         <v>39</v>
       </c>
       <c r="P15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>36</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -3344,55 +3529,55 @@
       <c r="E16" t="s">
         <v>46</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>8</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>8</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>10</v>
       </c>
-      <c r="Q16">
-        <f>P16*'[1]疲劳值，副本开启时间'!$B$10/24</f>
+      <c r="R16">
+        <f>Q16*'[1]疲劳值，副本开启时间'!$B$10/24</f>
         <v>100</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f>VLOOKUP(D16,'[1]疲劳值，副本开启时间'!$J$34:$L$45,3,4)</f>
         <v>40</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="D17">
         <v>10</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>26</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>27</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>8</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>15</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>300</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f>VLOOKUP(D17,'[1]疲劳值，副本开启时间'!$J$34:$L$45,3,4)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3402,36 +3587,36 @@
       <c r="D18">
         <v>17</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>33</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>8</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>450</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f>VLOOKUP(D18,'[1]疲劳值，副本开启时间'!$J$34:$L$45,3,4)</f>
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="D19">
         <v>22</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>8</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f>VLOOKUP(D19,'[1]疲劳值，副本开启时间'!$J$34:$L$45,3,4)</f>
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -3446,19 +3631,20 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20">
+      <c r="L20" s="3"/>
+      <c r="M20">
         <v>8</v>
       </c>
-      <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3">
+      <c r="R20" s="3"/>
+      <c r="S20" s="3">
         <f>VLOOKUP(D20,'[1]疲劳值，副本开启时间'!$J$34:$L$45,3,4)</f>
         <v>430</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>23</v>
@@ -3474,19 +3660,20 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21">
+      <c r="L21" s="3"/>
+      <c r="M21">
         <v>8</v>
       </c>
-      <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3">
+      <c r="R21" s="3"/>
+      <c r="S21" s="3">
         <f>VLOOKUP(D21,'[1]疲劳值，副本开启时间'!$J$34:$L$45,3,4)</f>
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>24</v>
@@ -3502,19 +3689,20 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22">
+      <c r="L22" s="3"/>
+      <c r="M22">
         <v>8</v>
       </c>
-      <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3">
+      <c r="R22" s="3"/>
+      <c r="S22" s="3">
         <f>VLOOKUP(D22,'[1]疲劳值，副本开启时间'!$J$34:$L$45,3,4)</f>
         <v>480</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>25</v>
@@ -3530,71 +3718,78 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23">
+      <c r="L23" s="3"/>
+      <c r="M23">
         <v>8</v>
       </c>
-      <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3">
+      <c r="R23" s="3"/>
+      <c r="S23" s="3">
         <f>VLOOKUP(D23,'[1]疲劳值，副本开启时间'!$J$34:$L$45,3,4)</f>
         <v>480</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="I28" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B30" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="I29" s="4">
+      <c r="C30" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A31" s="64">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B31" s="29">
+      <c r="B31" s="35">
         <v>1</v>
       </c>
       <c r="D31">
@@ -3606,35 +3801,41 @@
       </c>
       <c r="F31">
         <f>E31*'[1]疲劳值，副本开启时间'!$B$2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I31">
-        <f>F31*$I$29</f>
-        <v>5</v>
-      </c>
-      <c r="K31">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <f>F31*$J$29</f>
+        <v>6</v>
+      </c>
+      <c r="L31">
         <v>1</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>20</v>
       </c>
-      <c r="M31">
-        <f>J31+H31+I31</f>
-        <v>10</v>
-      </c>
       <c r="N31">
-        <f>SUM($L$31:L31)</f>
+        <f>K31+I31+J31</f>
+        <v>26</v>
+      </c>
+      <c r="O31" s="64">
+        <f>SUM($M$31:M31)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B32" s="29"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" s="35"/>
       <c r="D32">
         <v>1</v>
       </c>
@@ -3644,18 +3845,36 @@
       </c>
       <c r="F32">
         <f>E32*'[1]疲劳值，副本开启时间'!$B$2</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32:I39" si="0">F32*$I$29</f>
-        <v>10</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B33" s="29"/>
+        <f>SUM($H$31:H32)</f>
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:J39" si="0">F32*$J$29</f>
+        <v>12</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32:N39" si="1">K32+I32+J32</f>
+        <v>32</v>
+      </c>
+      <c r="O32">
+        <f>SUM($M$31:M32)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="64">
+        <v>3</v>
+      </c>
+      <c r="B33" s="35"/>
       <c r="D33">
         <v>1</v>
       </c>
@@ -3665,18 +3884,39 @@
       </c>
       <c r="F33">
         <f>E33*'[1]疲劳值，副本开启时间'!$B$2</f>
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>25</v>
       </c>
       <c r="I33">
+        <f>SUM($H$31:H33)</f>
+        <v>45</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B34" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="O33" s="64">
+        <f>SUM($M$31:M33)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" s="35"/>
       <c r="D34">
         <v>1</v>
       </c>
@@ -3686,29 +3926,36 @@
       </c>
       <c r="F34">
         <f>E34*'[1]疲劳值，副本开启时间'!$B$2</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I34">
+        <f>SUM($H$31:H34)</f>
+        <v>45</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
         <v>40</v>
       </c>
-      <c r="M34">
-        <f t="shared" ref="M34:M41" si="1">J32+H32+I32</f>
-        <v>10</v>
-      </c>
       <c r="N34">
-        <f>SUM($L$31:L34)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B35" s="29"/>
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="O34">
+        <f>SUM($M$31:M34)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" s="35"/>
       <c r="D35">
         <v>1</v>
       </c>
@@ -3718,29 +3965,39 @@
       </c>
       <c r="F35">
         <f>E35*'[1]疲劳值，副本开启时间'!$B$2</f>
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
       </c>
       <c r="I35">
+        <f>SUM($H$31:H35)</f>
+        <v>75</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="K35">
+        <v>30</v>
+      </c>
+      <c r="L35">
         <v>3</v>
       </c>
-      <c r="L35">
-        <v>20</v>
-      </c>
-      <c r="M35">
+      <c r="N35">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="N35">
-        <f>SUM($L$31:L35)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B36" s="29"/>
+        <v>105</v>
+      </c>
+      <c r="O35" s="64">
+        <f>SUM($M$31:M35)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" s="35"/>
       <c r="D36">
         <v>1</v>
       </c>
@@ -3750,29 +4007,36 @@
       </c>
       <c r="F36">
         <f>E36*'[1]疲劳值，副本开启时间'!$B$2</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I36">
+        <f>SUM($H$31:H36)</f>
+        <v>75</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="K36">
+        <v>36</v>
+      </c>
+      <c r="L36">
         <v>4</v>
       </c>
-      <c r="L36">
-        <v>25</v>
-      </c>
       <c r="M36">
+        <v>50</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="N36">
-        <f>SUM($L$31:L36)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B37" s="29"/>
+        <v>111</v>
+      </c>
+      <c r="O36">
+        <f>SUM($M$31:M36)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" s="35"/>
       <c r="D37">
         <v>1</v>
       </c>
@@ -3782,29 +4046,33 @@
       </c>
       <c r="F37">
         <f>E37*'[1]疲劳值，副本开启时间'!$B$2</f>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I37">
+        <f>SUM($H$31:H37)</f>
+        <v>75</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="K37">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="L37">
-        <v>30</v>
-      </c>
-      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="N37">
-        <f>SUM($L$31:L37)</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B38" s="29"/>
+        <v>117</v>
+      </c>
+      <c r="O37">
+        <f>SUM($M$31:M37)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" s="35"/>
       <c r="D38">
         <v>1</v>
       </c>
@@ -3814,32 +4082,39 @@
       </c>
       <c r="F38">
         <f>E38*'[1]疲劳值，副本开启时间'!$B$2</f>
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>35</v>
       </c>
       <c r="I38">
+        <f>SUM($H$31:H38)</f>
+        <v>110</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="K38">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="L38">
-        <v>35</v>
-      </c>
-      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="N38">
-        <f>SUM($L$31:L38)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B39" s="29">
-        <v>2</v>
-      </c>
-      <c r="C39">
+        <v>158</v>
+      </c>
+      <c r="O38">
+        <f>SUM($M$31:M38)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="35">
         <v>2</v>
       </c>
       <c r="D39">
@@ -3847,91 +4122,126 @@
       </c>
       <c r="E39">
         <f>SUM($C$31:D39)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F39">
         <f>E39*'[1]疲劳值，副本开启时间'!$B$2</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I39">
+        <f>SUM($H$31:H39)</f>
+        <v>110</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="J39">
+        <v>54</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="1"/>
+        <v>164</v>
+      </c>
+      <c r="O39">
+        <f>SUM($M$31:M39)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <f>SUM($C$31:D40)</f>
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <f>E40*'[1]疲劳值，副本开启时间'!$B$2</f>
+        <v>60</v>
+      </c>
+      <c r="I40">
+        <f>SUM($H$31:H40)</f>
+        <v>110</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J40:J44" si="2">F40*$J$29</f>
+        <v>60</v>
+      </c>
+      <c r="K40">
         <f>'[1]疲劳值，副本开启时间'!$D$34</f>
         <v>40</v>
       </c>
-      <c r="K39">
-        <v>7</v>
-      </c>
-      <c r="L39">
-        <v>40</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="N39">
-        <f>SUM($L$31:L39)</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B40" s="29"/>
-      <c r="C40">
+      <c r="L40">
+        <v>5</v>
+      </c>
+      <c r="M40">
+        <v>30</v>
+      </c>
+      <c r="N40">
+        <f>K37+I37+J37</f>
+        <v>117</v>
+      </c>
+      <c r="O40" s="64">
+        <f>SUM($M$31:M40)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41">
         <v>3</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <f>SUM($C$31:D40)</f>
-        <v>15</v>
-      </c>
-      <c r="K40">
-        <v>8</v>
-      </c>
-      <c r="L40">
-        <v>45</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N40">
-        <f>SUM($L$31:L40)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B41" s="29"/>
+      <c r="B41" s="35"/>
       <c r="C41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
         <f>SUM($C$31:D41)</f>
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <f>E41*'[1]疲劳值，副本开启时间'!$B$2</f>
+        <v>84</v>
+      </c>
+      <c r="I41">
+        <f>SUM($H$31:H41)</f>
+        <v>110</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>84</v>
       </c>
       <c r="K41">
-        <v>9</v>
+        <f>'[1]疲劳值，副本开启时间'!$L$35</f>
+        <v>110</v>
       </c>
       <c r="L41">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="M41">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="N41">
-        <f>SUM($L$31:L41)</f>
-        <v>305</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B42" s="29"/>
+        <f>K38+I38+J38</f>
+        <v>158</v>
+      </c>
+      <c r="O41">
+        <f>SUM($M$31:M41)</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" s="35"/>
       <c r="C42">
         <v>5</v>
       </c>
@@ -3940,293 +4250,468 @@
       </c>
       <c r="E42">
         <f>SUM($C$31:D42)</f>
-        <v>26</v>
-      </c>
-      <c r="K42" s="4">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <f>E42*'[1]疲劳值，副本开启时间'!$B$2</f>
+        <v>120</v>
+      </c>
+      <c r="I42">
+        <f>SUM($H$31:H42)</f>
+        <v>110</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="L42">
-        <v>105</v>
+        <v>7</v>
+      </c>
+      <c r="M42">
+        <v>40</v>
       </c>
       <c r="N42">
-        <f>SUM($L$31:L42)</f>
-        <v>410</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B43" s="29"/>
+        <f>K39+I39+J39</f>
+        <v>164</v>
+      </c>
+      <c r="O42" s="64">
+        <f>SUM($M$31:M42)</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" s="35"/>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
         <f>SUM($C$31:D43)</f>
-        <v>27</v>
-      </c>
-      <c r="K43">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="F43">
+        <f>E43*'[1]疲劳值，副本开启时间'!$B$2</f>
+        <v>126</v>
+      </c>
+      <c r="I43">
+        <f>SUM($H$31:H43)</f>
+        <v>110</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>126</v>
       </c>
       <c r="L43">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="M43">
+        <v>45</v>
       </c>
       <c r="N43">
-        <f>SUM($L$31:L43)</f>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B44" s="29"/>
+        <f>K40+I40+J40</f>
+        <v>210</v>
+      </c>
+      <c r="O43">
+        <f>SUM($M$31:M43)</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" s="35"/>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
         <f>SUM($C$31:D44)</f>
-        <v>28</v>
-      </c>
-      <c r="K44" s="5">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="F44">
+        <f>E44*'[1]疲劳值，副本开启时间'!$B$2</f>
+        <v>132</v>
+      </c>
+      <c r="I44">
+        <f>SUM($H$31:H44)</f>
+        <v>110</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>132</v>
       </c>
       <c r="L44">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B45" s="29"/>
+        <v>9</v>
+      </c>
+      <c r="M44">
+        <v>50</v>
+      </c>
+      <c r="N44">
+        <f>K41+I41+J41</f>
+        <v>304</v>
+      </c>
+      <c r="O44" s="64">
+        <f>SUM($M$31:M44)</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45" s="35"/>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
         <f>SUM($C$31:D45)</f>
-        <v>29</v>
-      </c>
-      <c r="K45">
-        <v>13</v>
-      </c>
-      <c r="L45">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B46" s="29"/>
+        <v>23</v>
+      </c>
+      <c r="F45">
+        <f>E45*'[1]疲劳值，副本开启时间'!$B$2</f>
+        <v>138</v>
+      </c>
+      <c r="I45">
+        <f>SUM($H$31:H45)</f>
+        <v>110</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45:J50" si="3">F45*$J$29</f>
+        <v>138</v>
+      </c>
+      <c r="L45" s="4">
+        <v>10</v>
+      </c>
+      <c r="M45">
+        <v>105</v>
+      </c>
+      <c r="O45">
+        <f>SUM($M$31:M45)</f>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46" s="35"/>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
         <f>SUM($C$31:D46)</f>
-        <v>30</v>
-      </c>
-      <c r="K46" s="5">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="F46">
+        <f>E46*'[1]疲劳值，副本开启时间'!$B$2</f>
+        <v>144</v>
+      </c>
+      <c r="I46">
+        <f>SUM($H$31:H46)</f>
+        <v>110</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>144</v>
       </c>
       <c r="L46">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="M46">
+        <v>130</v>
+      </c>
+      <c r="O46" s="64">
+        <f>SUM($M$31:M46)</f>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E47">
         <f>SUM($C$31:D47)</f>
-        <v>30</v>
-      </c>
-      <c r="K47">
-        <v>15</v>
-      </c>
-      <c r="L47">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="F47">
+        <f>E47*'[1]疲劳值，副本开启时间'!$B$2</f>
+        <v>144</v>
+      </c>
+      <c r="I47">
+        <f>SUM($H$31:H47)</f>
+        <v>110</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="L47" s="5">
+        <v>12</v>
+      </c>
+      <c r="M47">
+        <v>150</v>
+      </c>
+      <c r="O47">
+        <f>SUM($M$31:M47)</f>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E48">
         <f>SUM($C$31:D48)</f>
-        <v>30</v>
-      </c>
-      <c r="K48" s="5">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="F48">
+        <f>E48*'[1]疲劳值，副本开启时间'!$B$2</f>
+        <v>144</v>
+      </c>
+      <c r="I48">
+        <f>SUM($H$31:H48)</f>
+        <v>110</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>144</v>
       </c>
       <c r="L48">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="M48">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E49">
         <f>SUM($C$31:D49)</f>
-        <v>30</v>
-      </c>
-      <c r="K49">
-        <v>17</v>
-      </c>
-      <c r="L49">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="F49">
+        <f>E49*'[1]疲劳值，副本开启时间'!$B$2</f>
+        <v>144</v>
+      </c>
+      <c r="I49">
+        <f>SUM($H$31:H49)</f>
+        <v>110</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="L49" s="5">
+        <v>14</v>
+      </c>
+      <c r="M49">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E50">
         <f>SUM($C$31:D50)</f>
+        <v>24</v>
+      </c>
+      <c r="F50">
+        <f>E50*'[1]疲劳值，副本开启时间'!$B$2</f>
+        <v>144</v>
+      </c>
+      <c r="I50">
+        <f>SUM($H$31:H50)</f>
+        <v>110</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="L50">
+        <v>15</v>
+      </c>
+      <c r="M50">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="F51">
+        <f>E51*'[1]疲劳值，副本开启时间'!$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="5">
+        <v>16</v>
+      </c>
+      <c r="M51">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="L52">
+        <v>17</v>
+      </c>
+      <c r="M52">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="L53" s="5">
+        <v>18</v>
+      </c>
+      <c r="M53">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="L54">
+        <v>19</v>
+      </c>
+      <c r="M54">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="L55" s="5">
+        <v>20</v>
+      </c>
+      <c r="M55">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="L56">
+        <v>21</v>
+      </c>
+      <c r="M56">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="L57" s="5">
+        <v>22</v>
+      </c>
+      <c r="M57">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="L58">
+        <v>23</v>
+      </c>
+      <c r="M58">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="L59" s="5">
+        <v>24</v>
+      </c>
+      <c r="M59">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="60" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="L60">
+        <v>25</v>
+      </c>
+      <c r="M60">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="61" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="L61" s="5">
+        <v>26</v>
+      </c>
+      <c r="M61">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="62" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="L62">
+        <v>27</v>
+      </c>
+      <c r="M62">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="L63" s="5">
+        <v>28</v>
+      </c>
+      <c r="M63">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="64" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="L64">
+        <v>29</v>
+      </c>
+      <c r="M64">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="L65" s="5">
         <v>30</v>
       </c>
-      <c r="K50" s="5">
-        <v>18</v>
-      </c>
-      <c r="L50">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="K51">
-        <v>19</v>
-      </c>
-      <c r="L51">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="K52" s="5">
-        <v>20</v>
-      </c>
-      <c r="L52">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="K53">
-        <v>21</v>
-      </c>
-      <c r="L53">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="K54" s="5">
-        <v>22</v>
-      </c>
-      <c r="L54">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="K55">
-        <v>23</v>
-      </c>
-      <c r="L55">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="K56" s="5">
-        <v>24</v>
-      </c>
-      <c r="L56">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="K57">
-        <v>25</v>
-      </c>
-      <c r="L57">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="K58" s="5">
-        <v>26</v>
-      </c>
-      <c r="L58">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="K59">
-        <v>27</v>
-      </c>
-      <c r="L59">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="K60" s="5">
-        <v>28</v>
-      </c>
-      <c r="L60">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="K61">
-        <v>29</v>
-      </c>
-      <c r="L61">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="K62" s="5">
-        <v>30</v>
-      </c>
-      <c r="L62">
+      <c r="M65">
         <v>720</v>
       </c>
     </row>
-    <row r="63" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="K63">
-        <v>31</v>
-      </c>
-      <c r="L63">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="64" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="K64" s="5">
-        <v>32</v>
-      </c>
-      <c r="L64">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="K65">
-        <v>33</v>
-      </c>
-      <c r="L65">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="K66" s="5">
-        <v>34</v>
-      </c>
+      <c r="I66" s="5"/>
       <c r="L66">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="K67">
-        <v>35</v>
-      </c>
-      <c r="L67">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="M66">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="L67" s="5">
+        <v>32</v>
+      </c>
+      <c r="M67">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-    </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="I68" s="5"/>
+      <c r="L68">
+        <v>33</v>
+      </c>
+      <c r="M68">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="L69" s="5">
+        <v>34</v>
+      </c>
+      <c r="M69">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-    </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="I70" s="5"/>
+      <c r="L70">
+        <v>35</v>
+      </c>
+      <c r="M70">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C72" s="5"/>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C74" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="B39:B46"/>
   </mergeCells>
@@ -4251,14 +4736,14 @@
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -4270,7 +4755,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="8"/>
       <c r="R1" s="7"/>
@@ -4282,29 +4767,29 @@
     <row r="2" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -4313,7 +4798,7 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
@@ -4344,12 +4829,12 @@
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="32" t="s">
-        <v>137</v>
+      <c r="K3" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -4358,7 +4843,7 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -4390,9 +4875,9 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="32"/>
+        <v>68</v>
+      </c>
+      <c r="K4" s="38"/>
       <c r="L4" s="7"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -4400,7 +4885,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
@@ -4430,13 +4915,13 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="32"/>
+        <v>71</v>
+      </c>
+      <c r="K5" s="38"/>
       <c r="L5" s="7"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -4445,7 +4930,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -4476,9 +4961,9 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="32"/>
+        <v>73</v>
+      </c>
+      <c r="K6" s="38"/>
       <c r="L6" s="7"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -4486,7 +4971,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -4512,15 +4997,15 @@
       </c>
       <c r="F7" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N58/8,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="32"/>
+        <v>75</v>
+      </c>
+      <c r="K7" s="38"/>
       <c r="L7" s="7"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -4529,7 +5014,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -4558,11 +5043,11 @@
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="31" t="s">
-        <v>129</v>
+      <c r="J8" s="37" t="s">
+        <v>128</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -4572,7 +5057,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -4603,7 +5088,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="31"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="1"/>
@@ -4611,7 +5096,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -4643,7 +5128,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="31"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="1"/>
@@ -4652,7 +5137,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -4678,13 +5163,13 @@
       </c>
       <c r="F11" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N62/8,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -4694,10 +5179,10 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -4726,10 +5211,10 @@
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -4740,7 +5225,7 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -4780,7 +5265,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -4820,7 +5305,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -4846,13 +5331,13 @@
       </c>
       <c r="F15" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N66/8,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -4862,7 +5347,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -4888,7 +5373,7 @@
       </c>
       <c r="F16" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N67/8,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="1"/>
@@ -4902,7 +5387,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -4933,7 +5418,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -4944,7 +5429,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -4970,7 +5455,7 @@
       </c>
       <c r="F18" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N69/8,0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="7"/>
@@ -4985,7 +5470,7 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -5010,17 +5495,17 @@
       </c>
       <c r="F19" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N70/8,0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -5031,7 +5516,7 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -5056,13 +5541,13 @@
       </c>
       <c r="F20" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N71/8,0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -5109,7 +5594,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -5136,7 +5621,7 @@
       </c>
       <c r="F22" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N73/8,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="7"/>
@@ -5150,7 +5635,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -5176,7 +5661,7 @@
       </c>
       <c r="F23" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N74/8,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="7"/>
@@ -5190,7 +5675,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -5216,7 +5701,7 @@
       </c>
       <c r="F24" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N75/8,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="7"/>
@@ -5230,7 +5715,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -5256,7 +5741,7 @@
       </c>
       <c r="F25" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N76/8,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="7"/>
@@ -5270,7 +5755,7 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -5296,7 +5781,7 @@
       </c>
       <c r="F26" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N77/8,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="7"/>
@@ -5310,7 +5795,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -5336,7 +5821,7 @@
       </c>
       <c r="F27" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N78/8,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="7"/>
@@ -5350,7 +5835,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -5376,7 +5861,7 @@
       </c>
       <c r="F28" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N79/8,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="7"/>
@@ -5390,7 +5875,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -5416,7 +5901,7 @@
       </c>
       <c r="F29" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N80/8,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="7"/>
@@ -5430,7 +5915,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -5456,7 +5941,7 @@
       </c>
       <c r="F30" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N81/8,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="7"/>
@@ -5470,7 +5955,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -5496,7 +5981,7 @@
       </c>
       <c r="F31" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N82/8,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="7"/>
@@ -5510,7 +5995,7 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
@@ -5536,7 +6021,7 @@
       </c>
       <c r="F32" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N83/8,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="7"/>
@@ -5551,7 +6036,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
@@ -5576,7 +6061,7 @@
       </c>
       <c r="F33" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N84/8,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="7"/>
@@ -5591,7 +6076,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -5616,7 +6101,7 @@
       </c>
       <c r="F34" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N85/8,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="7"/>
@@ -5631,7 +6116,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
@@ -5656,7 +6141,7 @@
       </c>
       <c r="F35" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N86/8,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="7"/>
@@ -5669,7 +6154,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
@@ -5696,7 +6181,7 @@
       </c>
       <c r="F36" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N87/8,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="7"/>
@@ -5710,7 +6195,7 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
@@ -5736,7 +6221,7 @@
       </c>
       <c r="F37" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N88/8,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="7"/>
@@ -5750,7 +6235,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -5776,13 +6261,13 @@
       </c>
       <c r="F38" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N89/8,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -5792,7 +6277,7 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
@@ -5818,7 +6303,7 @@
       </c>
       <c r="F39" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N90/8,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="7"/>
@@ -5833,7 +6318,7 @@
       <c r="Q39" s="8"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
@@ -5858,7 +6343,7 @@
       </c>
       <c r="F40" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N91/8,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="7"/>
@@ -5873,7 +6358,7 @@
       <c r="Q40" s="8"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
@@ -5898,7 +6383,7 @@
       </c>
       <c r="F41" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N92/8,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="7"/>
@@ -5911,7 +6396,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
@@ -5938,7 +6423,7 @@
       </c>
       <c r="F42" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N93/8,0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="7"/>
@@ -5952,7 +6437,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
@@ -5978,7 +6463,7 @@
       </c>
       <c r="F43" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N94/8,0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="7"/>
@@ -5992,7 +6477,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
@@ -6018,7 +6503,7 @@
       </c>
       <c r="F44" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N95/8,0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="7"/>
@@ -6033,7 +6518,7 @@
       <c r="Q44" s="8"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -6058,7 +6543,7 @@
       </c>
       <c r="F45" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N96/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="7"/>
@@ -6072,7 +6557,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -6098,7 +6583,7 @@
       </c>
       <c r="F46" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N97/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="7"/>
@@ -6112,7 +6597,7 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
@@ -6138,7 +6623,7 @@
       </c>
       <c r="F47" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N98/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="7"/>
@@ -6153,7 +6638,7 @@
       <c r="Q47" s="8"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
@@ -6178,7 +6663,7 @@
       </c>
       <c r="F48" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N99/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="7"/>
@@ -6191,7 +6676,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
@@ -6218,7 +6703,7 @@
       </c>
       <c r="F49" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N100/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="7"/>
@@ -6232,7 +6717,7 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
@@ -6258,7 +6743,7 @@
       </c>
       <c r="F50" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N101/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="7"/>
@@ -6272,7 +6757,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
@@ -6298,7 +6783,7 @@
       </c>
       <c r="F51" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N102/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="7"/>
@@ -6313,7 +6798,7 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
@@ -6338,7 +6823,7 @@
       </c>
       <c r="F52" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N103/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="7"/>
@@ -6352,7 +6837,7 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
@@ -6378,7 +6863,7 @@
       </c>
       <c r="F53" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N104/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="7"/>
@@ -6393,7 +6878,7 @@
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
@@ -6418,7 +6903,7 @@
       </c>
       <c r="F54" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N105/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="7"/>
@@ -6456,13 +6941,13 @@
       </c>
       <c r="F55" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N106/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
@@ -6496,7 +6981,7 @@
       </c>
       <c r="F56" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N107/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="7"/>
@@ -6534,7 +7019,7 @@
       </c>
       <c r="F57" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N108/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="7"/>
@@ -6572,7 +7057,7 @@
       </c>
       <c r="F58" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N109/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="7"/>
@@ -6610,7 +7095,7 @@
       </c>
       <c r="F59" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N110/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="7"/>
@@ -6648,7 +7133,7 @@
       </c>
       <c r="F60" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N111/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="7"/>
@@ -6686,7 +7171,7 @@
       </c>
       <c r="F61" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N112/8,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="7"/>
@@ -6724,7 +7209,7 @@
       </c>
       <c r="F62" s="10">
         <f>ROUNDUP('[1]疲劳值，副本开启时间'!N113/8,0)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="7"/>
@@ -6756,895 +7241,1050 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:K46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54:M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="32.625" customWidth="1"/>
-    <col min="17" max="17" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="32.625" customWidth="1"/>
+    <col min="20" max="20" width="30.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="H1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="N1" s="13" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="T1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="R1" s="21"/>
-    </row>
-    <row r="2" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33">
+      <c r="U1" s="21"/>
+    </row>
+    <row r="2" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="50">
         <v>1</v>
       </c>
       <c r="B2" s="45">
         <v>1</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="50">
         <v>1</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="D2" s="59">
+        <v>5</v>
+      </c>
+      <c r="E2" s="59">
+        <f>D2</f>
+        <v>5</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="29"/>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+    </row>
+    <row r="3" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="28"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
-    </row>
-    <row r="4" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+    </row>
+    <row r="4" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="51"/>
       <c r="B4" s="45"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13" t="s">
-        <v>205</v>
-      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="13"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
-    </row>
-    <row r="5" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
+      <c r="R4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+    </row>
+    <row r="5" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="51"/>
       <c r="B5" s="45"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13" t="s">
-        <v>204</v>
-      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
-    </row>
-    <row r="6" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
+      <c r="R5" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="51"/>
       <c r="B6" s="45"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="12"/>
+    </row>
+    <row r="7" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="13">
+        <v>2</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="U7" s="12"/>
+    </row>
+    <row r="8" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="51"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="13">
+        <v>3</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="12"/>
+    </row>
+    <row r="9" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="51"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="69">
+        <v>1</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="12"/>
+    </row>
+    <row r="10" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="52"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="54">
         <v>2</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="R7" s="12"/>
-    </row>
-    <row r="8" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="13">
-        <v>3</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="12"/>
-    </row>
-    <row r="9" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="12"/>
-    </row>
-    <row r="10" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="49"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="42">
-        <v>2</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="12"/>
-    </row>
-    <row r="11" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="54">
+        <v>5</v>
+      </c>
+      <c r="E10" s="54">
+        <f>SUM(D2:D10)</f>
+        <v>10</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="12"/>
+    </row>
+    <row r="11" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="45">
         <v>2</v>
       </c>
       <c r="B11" s="45"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="12"/>
-    </row>
-    <row r="12" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="74">
+        <v>1</v>
+      </c>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="12"/>
+    </row>
+    <row r="12" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="45"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="13">
         <v>1</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="32"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="38"/>
-    </row>
-    <row r="13" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="44"/>
+    </row>
+    <row r="13" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="45"/>
       <c r="B13" s="45"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="13">
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="13">
         <v>3</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="28"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
-      <c r="Q13" s="38"/>
-    </row>
-    <row r="14" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="44"/>
+    </row>
+    <row r="14" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="45"/>
       <c r="B14" s="45"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="38" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T14" s="13"/>
+    </row>
+    <row r="15" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="45"/>
       <c r="B15" s="45"/>
-      <c r="C15" s="42">
+      <c r="C15" s="54">
         <v>3</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="D15" s="54">
+        <v>5</v>
+      </c>
+      <c r="E15" s="54">
+        <f>SUM(D2:D15)</f>
+        <v>15</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="29"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
-    </row>
-    <row r="16" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+    </row>
+    <row r="16" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="45"/>
       <c r="B16" s="45"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="13">
         <v>1</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="17" t="s">
-        <v>181</v>
-      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="29"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
-      <c r="Q16" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y16">
+      <c r="Q16" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="45">
         <v>3</v>
       </c>
       <c r="B17" s="45"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="29"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+    </row>
+    <row r="18" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
-      <c r="C18" s="42">
+      <c r="C18" s="54">
         <v>4</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="D18" s="54">
+        <v>5</v>
+      </c>
+      <c r="E18" s="54">
+        <f>SUM(D2:D18)</f>
+        <v>20</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="74">
+        <v>1</v>
+      </c>
       <c r="O18" s="13"/>
-      <c r="P18" s="13" t="s">
-        <v>211</v>
-      </c>
+      <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
-    </row>
-    <row r="19" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R18" s="13"/>
+      <c r="S18" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="T18" s="13"/>
+    </row>
+    <row r="19" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="45"/>
       <c r="B19" s="45"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="29"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
-    </row>
-    <row r="20" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+    </row>
+    <row r="20" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="45"/>
       <c r="B20" s="45"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="29"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
-      <c r="Q20" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="45"/>
       <c r="B21" s="45"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="22" t="s">
+        <v>168</v>
+      </c>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
-    </row>
-    <row r="22" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+    </row>
+    <row r="22" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="45"/>
       <c r="B22" s="45"/>
-      <c r="C22" s="33">
+      <c r="C22" s="50">
         <v>5</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
+      <c r="D22" s="54">
+        <v>5</v>
+      </c>
+      <c r="E22" s="54">
+        <f>SUM(D2:D22)</f>
+        <v>25</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="29"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
-    </row>
-    <row r="23" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+    </row>
+    <row r="23" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="45"/>
       <c r="B23" s="45"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="29"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+    </row>
+    <row r="24" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="45"/>
       <c r="B24" s="45"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="17" t="s">
-        <v>182</v>
-      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="29"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q24" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+    </row>
+    <row r="25" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="45">
         <v>4</v>
       </c>
       <c r="B25" s="45"/>
-      <c r="C25" s="48">
+      <c r="C25" s="58">
         <v>6</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
+      <c r="D25" s="54">
+        <v>5</v>
+      </c>
+      <c r="E25" s="54">
+        <f>SUM(D2:D25)</f>
+        <v>30</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="29"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
-    </row>
-    <row r="26" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R25" s="13"/>
+      <c r="S25" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="T25" s="13"/>
+    </row>
+    <row r="26" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="45"/>
       <c r="B26" s="45"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="29"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
-    </row>
-    <row r="27" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+    </row>
+    <row r="27" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="45"/>
       <c r="B27" s="45"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="29"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
-    </row>
-    <row r="28" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+    </row>
+    <row r="28" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="45"/>
       <c r="B28" s="45"/>
-      <c r="C28" s="48">
+      <c r="C28" s="58">
         <v>7</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
+      <c r="D28" s="54">
+        <v>5</v>
+      </c>
+      <c r="E28" s="54">
+        <f>SUM(D2:D28)</f>
+        <v>35</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="29"/>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
-    </row>
-    <row r="29" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+    </row>
+    <row r="29" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="45"/>
       <c r="B29" s="45"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="28"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
-    </row>
-    <row r="30" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+    </row>
+    <row r="30" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="45"/>
       <c r="B30" s="45"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="O30" s="13" t="s">
-        <v>206</v>
-      </c>
+      <c r="C30" s="58"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="13"/>
       <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R30" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+    </row>
+    <row r="31" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="45"/>
       <c r="B31" s="45"/>
-      <c r="C31" s="48">
+      <c r="C31" s="58">
         <v>8</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
+      <c r="D31" s="54">
+        <v>5</v>
+      </c>
+      <c r="E31" s="54">
+        <f>SUM(D2:D31)</f>
+        <v>40</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="70"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
-    </row>
-    <row r="32" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+    </row>
+    <row r="32" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="45"/>
       <c r="B32" s="45"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="17" t="s">
-        <v>202</v>
-      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="29"/>
       <c r="O32" s="13"/>
       <c r="P32" s="13"/>
-      <c r="Q32" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q32" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="45"/>
       <c r="B33" s="45"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="26" t="s">
+      <c r="C33" s="58"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="P33" s="13"/>
+      <c r="R33" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="M33" s="13"/>
-      <c r="O33" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="42">
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+    </row>
+    <row r="34" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="54">
         <v>5</v>
       </c>
       <c r="B34" s="45">
@@ -7653,252 +8293,294 @@
       <c r="C34" s="45">
         <v>1</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
+      <c r="D34" s="75">
+        <v>5</v>
+      </c>
+      <c r="E34" s="45">
+        <f>SUM(D2:D34)</f>
+        <v>45</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="29"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
-    </row>
-    <row r="35" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+    </row>
+    <row r="35" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="55"/>
       <c r="B35" s="45"/>
       <c r="C35" s="45"/>
-      <c r="D35" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="28"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
-    </row>
-    <row r="36" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+    </row>
+    <row r="36" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="55"/>
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
-      <c r="D36" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="28"/>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
-      <c r="Q36" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="55"/>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
-      <c r="D37" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="28"/>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
-    </row>
-    <row r="38" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+    </row>
+    <row r="38" spans="1:20" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="55"/>
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
-      <c r="D38" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="28"/>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
-    </row>
-    <row r="39" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+    </row>
+    <row r="39" spans="1:20" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="55"/>
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="29"/>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
-    </row>
-    <row r="40" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="43"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+    </row>
+    <row r="40" spans="1:20" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="55"/>
       <c r="B40" s="45"/>
       <c r="C40" s="45">
         <v>2</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="28"/>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
-    </row>
-    <row r="41" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="43"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="T40" s="13"/>
+    </row>
+    <row r="41" spans="1:20" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="55"/>
       <c r="B41" s="45"/>
       <c r="C41" s="45"/>
-      <c r="D41" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="29"/>
       <c r="O41" s="13"/>
-    </row>
-    <row r="42" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="43"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+    </row>
+    <row r="42" spans="1:20" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="55"/>
       <c r="B42" s="45"/>
       <c r="C42" s="45"/>
-      <c r="D42" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="29"/>
       <c r="O42" s="13"/>
-    </row>
-    <row r="43" spans="1:17" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="44"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+    </row>
+    <row r="43" spans="1:20" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="56"/>
       <c r="B43" s="45"/>
       <c r="C43" s="45"/>
-      <c r="D43" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13" t="s">
-        <v>225</v>
-      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="29"/>
       <c r="O43" s="13"/>
-    </row>
-    <row r="44" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="R43" s="13"/>
+    </row>
+    <row r="44" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="23">
         <v>6</v>
       </c>
       <c r="B44" s="45"/>
       <c r="C44" s="45"/>
-      <c r="D44" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13" t="s">
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="I44" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G44" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="O44" s="13"/>
-    </row>
-    <row r="45" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R44" s="13"/>
+    </row>
+    <row r="45" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="45">
         <v>7</v>
       </c>
@@ -7906,157 +8588,279 @@
       <c r="C45" s="45">
         <v>3</v>
       </c>
-      <c r="D45" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="29"/>
       <c r="O45" s="13"/>
-    </row>
-    <row r="46" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+    </row>
+    <row r="46" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="45"/>
       <c r="B46" s="45"/>
       <c r="C46" s="45"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="29"/>
       <c r="O46" s="13"/>
-    </row>
-    <row r="47" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+    </row>
+    <row r="47" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="45"/>
       <c r="B47" s="45"/>
       <c r="C47" s="45"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="29"/>
       <c r="O47" s="13"/>
-    </row>
-    <row r="48" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+    </row>
+    <row r="48" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="45"/>
       <c r="B48" s="45"/>
       <c r="C48" s="45"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="57"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+    </row>
+    <row r="49" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="50">
+        <v>8</v>
+      </c>
       <c r="B49" s="45"/>
       <c r="C49" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="57"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
+    </row>
+    <row r="50" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="51"/>
       <c r="B50" s="45"/>
       <c r="C50" s="45"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="57"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="I50" s="79" t="s">
+        <v>254</v>
+      </c>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+    </row>
+    <row r="51" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="51"/>
       <c r="B51" s="45"/>
       <c r="C51" s="45"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="57"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="I51" s="79" t="s">
+        <v>255</v>
+      </c>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="79"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A52" s="51"/>
       <c r="B52" s="45"/>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="63" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="57"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="I52" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="79"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A53" s="51"/>
       <c r="B53" s="45"/>
-      <c r="C53" s="58"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="57"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="I53" s="79" t="s">
+        <v>257</v>
+      </c>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="79"/>
+      <c r="M53" s="79"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A54" s="51"/>
       <c r="B54" s="45"/>
-      <c r="C54" s="58"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="57"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="79"/>
+      <c r="M54" s="79"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A55" s="51"/>
       <c r="B55" s="45"/>
-      <c r="C55" s="58"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="57"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
+      <c r="M55" s="79"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A56" s="51"/>
       <c r="B56" s="45"/>
-      <c r="C56" s="58"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="57"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="79"/>
+      <c r="M56" s="79"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A57" s="51"/>
       <c r="B57" s="45"/>
-      <c r="C57" s="58"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="57"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="79"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A58" s="51"/>
       <c r="B58" s="45"/>
       <c r="C58" s="24"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="57"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A59" s="33"/>
       <c r="B59" s="45"/>
       <c r="C59" s="24"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="57"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A60" s="33"/>
       <c r="B60" s="45"/>
       <c r="C60" s="24"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="57"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" s="33"/>
       <c r="B61" s="45"/>
       <c r="C61" s="24"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="57"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A62" s="33"/>
       <c r="B62" s="45"/>
       <c r="C62" s="24"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="57"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63" s="33"/>
       <c r="B63" s="45"/>
       <c r="C63" s="24"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="57"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64" s="33"/>
       <c r="B64" s="45"/>
       <c r="C64" s="24"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" s="45"/>
@@ -8077,83 +8881,111 @@
       <c r="B70" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="B2:B33"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="F23:F30"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G39:K39"/>
+  <mergeCells count="104">
+    <mergeCell ref="I55:M55"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="I57:M57"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="I39:M39"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="B34:B70"/>
     <mergeCell ref="C40:C44"/>
     <mergeCell ref="C52:C57"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="H23:H30"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="B2:B33"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="I36:M36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
